--- a/CASUAL/LA ONT/VERGARA, ESTELITA.xlsx
+++ b/CASUAL/LA ONT/VERGARA, ESTELITA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>UT(0-2-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-8)</t>
   </si>
 </sst>
 </file>
@@ -590,6 +593,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -602,20 +614,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1071,7 +1074,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,7 +1117,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1181,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1241,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1307,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1367,7 +1370,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1468,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,7 +1527,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1592,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1635,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1707,7 +1710,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1896,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1959,7 +1962,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2020,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2086,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2142,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2214,7 +2217,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2260,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2323,7 +2326,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2382,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2477,7 +2480,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2540,7 +2543,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,7 +2609,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K135" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2984,12 +2987,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3019,14 +3022,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3037,16 +3040,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>43101</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3059,14 +3062,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3092,18 +3095,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3150,7 +3153,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>41.5</v>
+        <v>41.358000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4342,23 +4345,19 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="13">
-        <v>1.25</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C68" s="13"/>
       <c r="D68" s="39">
-        <v>0.25</v>
+        <v>0.14200000000000002</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4367,13 +4366,17 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B69" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C69" s="13">
         <v>1.25</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
@@ -4387,7 +4390,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -4407,7 +4410,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13">
@@ -4427,7 +4430,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13">
@@ -4447,7 +4450,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13">
@@ -4467,7 +4470,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4486,17 +4489,19 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="48" t="s">
-        <v>47</v>
+      <c r="A75" s="40">
+        <v>44896</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4504,19 +4509,17 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
-        <v>44957</v>
+      <c r="A76" s="48" t="s">
+        <v>47</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4525,17 +4528,13 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>44985</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>44957</v>
+      </c>
+      <c r="B77" s="20"/>
       <c r="C77" s="13">
         <v>1.25</v>
       </c>
-      <c r="D77" s="39">
-        <v>9</v>
-      </c>
+      <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
       <c r="G77" s="13">
@@ -4545,41 +4544,41 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="20" t="s">
-        <v>53</v>
-      </c>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B78" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>9</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H78" s="39">
-        <v>3</v>
-      </c>
+      <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45046</v>
-      </c>
-      <c r="B79" s="20"/>
+        <v>45016</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
@@ -4590,14 +4589,18 @@
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H79" s="39"/>
+      <c r="H79" s="39">
+        <v>3</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
+      <c r="K79" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4617,17 +4620,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>51</v>
-      </c>
+        <v>45077</v>
+      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
-      <c r="D81" s="39">
-        <v>9</v>
-      </c>
+      <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13">
@@ -4637,19 +4636,21 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20">
-        <v>8</v>
-      </c>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B82" s="20"/>
+        <v>45107</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>9</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -4659,11 +4660,13 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -4683,7 +4686,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4703,7 +4706,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -4723,7 +4726,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -4743,16 +4746,18 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
@@ -4760,8 +4765,8 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="48" t="s">
-        <v>56</v>
+      <c r="A88" s="40">
+        <v>45291</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4778,8 +4783,8 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
-        <v>45322</v>
+      <c r="A89" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4797,7 +4802,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4814,7 +4819,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45351</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5518,34 +5525,50 @@
       <c r="K134" s="20"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H135" s="43"/>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5643,12 +5666,14 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.25</v>
+        <v>0.14200000000000002</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/CASUAL/LA ONT/VERGARA, ESTELITA.xlsx
+++ b/CASUAL/LA ONT/VERGARA, ESTELITA.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>UT(0-1-8)</t>
+  </si>
+  <si>
+    <t>UT(0-0-4)</t>
   </si>
 </sst>
 </file>
@@ -593,15 +596,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -614,11 +608,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,7 +1077,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1117,7 +1120,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,7 +1184,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1241,7 +1244,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1307,7 +1310,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1373,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1471,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1527,7 +1530,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1595,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1635,7 +1638,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,7 +1713,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1899,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1962,7 +1965,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2023,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2089,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2145,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2217,7 +2220,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2263,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2329,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2385,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2483,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2543,7 +2546,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2992,7 +2995,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A61" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomLeft" activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3022,14 +3025,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3040,16 +3043,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>43101</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3062,14 +3065,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3095,18 +3098,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3153,7 +3156,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>41.358000000000004</v>
+        <v>41.35</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4432,11 +4435,15 @@
       <c r="A72" s="40">
         <v>44805</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C72" s="13">
         <v>1.25</v>
       </c>
-      <c r="D72" s="39"/>
+      <c r="D72" s="39">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
       <c r="G72" s="13">
@@ -5558,17 +5565,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5665,15 +5672,13 @@
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
-      <c r="E3">
-        <v>1</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.14200000000000002</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
